--- a/biology/Zoologie/Conure_tête-de-feu/Conure_tête-de-feu.xlsx
+++ b/biology/Zoologie/Conure_tête-de-feu/Conure_tête-de-feu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Conure_t%C3%AAte-de-feu</t>
+          <t>Conure_tête-de-feu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrrhura rhodocephala
 La Conure tête-de-feu (Pyrrhura rhodocephala) est une espèce d'oiseau appartenant à la famille des Psittacidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Conure_t%C3%AAte-de-feu</t>
+          <t>Conure_tête-de-feu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 24 cm. Il est proche de la Conure de Souancé mais s'en distingue par le front et la calotte rouges, l'absence d'écailles, les bordures alaires blanches et les rémiges bleues.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Conure_t%C3%AAte-de-feu</t>
+          <t>Conure_tête-de-feu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit entre 1 500 et 2 000 m d'altitude.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Conure_t%C3%AAte-de-feu</t>
+          <t>Conure_tête-de-feu</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette conure peuple le nord-ouest du Venezuela.
 </t>
